--- a/Micro Switch SD-16238 Pinouts.xlsx
+++ b/Micro Switch SD-16238 Pinouts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/706bb807e9c48073/Westveld LLC/Item Research/Honeywell/Terminals/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/706bb807e9c48073/Westveld LLC/Item Research/Honeywell/Terminals/Micro Switch SD-16238/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="11_F25DC773A252ABDACC104848215C7D3E5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4808511E-C30F-4A2C-A941-9E620AA172CB}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="11_F25DC773A252ABDACC104848215C7D3E5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAA19CB8-97CE-4A56-A9DB-91500E89A0FD}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="0" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,13 +87,13 @@
     <t>IDC</t>
   </si>
   <si>
-    <t>25M</t>
-  </si>
-  <si>
     <t>Strobe</t>
   </si>
   <si>
     <t>Key under local</t>
+  </si>
+  <si>
+    <t>25F</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="B1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +494,7 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>19</v>
@@ -509,7 +509,7 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -782,7 +782,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="5">
         <v>23</v>

--- a/Micro Switch SD-16238 Pinouts.xlsx
+++ b/Micro Switch SD-16238 Pinouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/706bb807e9c48073/Westveld LLC/Item Research/Honeywell/Terminals/Micro Switch SD-16238/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="11_F25DC773A252ABDACC104848215C7D3E5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAA19CB8-97CE-4A56-A9DB-91500E89A0FD}"/>
+  <xr:revisionPtr revIDLastSave="550" documentId="11_F25DC773A252ABDACC104848215C7D3E5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87961A2E-16F5-4CFE-BF6D-90D6073EB0CE}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="0" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="120">
   <si>
     <t>Data 6</t>
   </si>
@@ -94,14 +94,313 @@
   </si>
   <si>
     <t>25F</t>
+  </si>
+  <si>
+    <t>NOTES:</t>
+  </si>
+  <si>
+    <t>Data appears valid &gt; 1ms before pulse</t>
+  </si>
+  <si>
+    <t>Strobe pulse is positive, ~ 28.2us long</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>scan</t>
+  </si>
+  <si>
+    <t>blk</t>
+  </si>
+  <si>
+    <t>blank3</t>
+  </si>
+  <si>
+    <t>PIN 2</t>
+  </si>
+  <si>
+    <t>PIN 3</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>2 (weird)</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>PIN 4</t>
+  </si>
+  <si>
+    <t>PIN 5</t>
+  </si>
+  <si>
+    <t>text frm</t>
+  </si>
+  <si>
+    <t>attrib</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>ESC</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>blank2</t>
+  </si>
+  <si>
+    <t>dn arrow</t>
+  </si>
+  <si>
+    <t>PIN 6</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>retn</t>
+  </si>
+  <si>
+    <t>l arrow</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>r  arrow</t>
+  </si>
+  <si>
+    <t>PIN 7</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>up arrow</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>PIN 8</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>bk sp</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>erase ?</t>
+  </si>
+  <si>
+    <t>break ?</t>
+  </si>
+  <si>
+    <t>PIN 9</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>transmit</t>
+  </si>
+  <si>
+    <t>blank1</t>
+  </si>
+  <si>
+    <t>152khz?</t>
+  </si>
+  <si>
+    <t>Data Strobe</t>
+  </si>
+  <si>
+    <t>read row</t>
+  </si>
+  <si>
+    <t>Scan out is negative pulse, ~ 23us</t>
+  </si>
+  <si>
+    <t>Read Row is negative pulse that aligns with scan pulse</t>
+  </si>
+  <si>
+    <t>Vcc</t>
+  </si>
+  <si>
+    <t>Gnd</t>
+  </si>
+  <si>
+    <t>H with pulldown?</t>
+  </si>
+  <si>
+    <t>IC Pinout</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -123,7 +422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -183,11 +482,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -197,6 +514,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,15 +812,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L14"/>
+  <dimension ref="A1:AA55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="11" width="4.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="13"/>
+    <col min="18" max="18" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
@@ -861,8 +1196,1234 @@
         <v>13</v>
       </c>
     </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="U21" s="15"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="5">
+        <v>40</v>
+      </c>
+      <c r="I22" t="s">
+        <v>111</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="O22" s="13">
+        <v>16</v>
+      </c>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R22" s="13">
+        <v>1</v>
+      </c>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="U22" s="13">
+        <v>106</v>
+      </c>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="1">
+        <v>39</v>
+      </c>
+      <c r="I23" t="s">
+        <v>118</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" s="13">
+        <v>17</v>
+      </c>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="R23" s="13">
+        <v>2</v>
+      </c>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U23" s="13">
+        <v>107</v>
+      </c>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="5">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24" s="13">
+        <v>41</v>
+      </c>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R24" s="13">
+        <v>3</v>
+      </c>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U24" s="13">
+        <v>108</v>
+      </c>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="1">
+        <v>37</v>
+      </c>
+      <c r="I25" t="s">
+        <v>112</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="13">
+        <v>42</v>
+      </c>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="R25" s="13">
+        <v>4</v>
+      </c>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13">
+        <v>0</v>
+      </c>
+      <c r="U25" s="13">
+        <v>104</v>
+      </c>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="5">
+        <v>5</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="5">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" s="13">
+        <v>43</v>
+      </c>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R26" s="13">
+        <v>21</v>
+      </c>
+      <c r="S26" s="13"/>
+      <c r="T26" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="U26" s="13">
+        <v>105</v>
+      </c>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="1">
+        <v>35</v>
+      </c>
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" s="13">
+        <v>63</v>
+      </c>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13">
+        <v>1</v>
+      </c>
+      <c r="R27" s="13">
+        <v>22</v>
+      </c>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="U27" s="13">
+        <v>84</v>
+      </c>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="5">
+        <v>7</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="5">
+        <v>34</v>
+      </c>
+      <c r="I28" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" s="13">
+        <v>64</v>
+      </c>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="R28" s="13">
+        <v>23</v>
+      </c>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="U28" s="13">
+        <v>85</v>
+      </c>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="1">
+        <v>33</v>
+      </c>
+      <c r="I29" t="s">
+        <v>0</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" s="13">
+        <v>65</v>
+      </c>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="R29" s="13">
+        <v>44</v>
+      </c>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="5">
+        <v>9</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="5">
+        <v>32</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="R30" s="13">
+        <v>45</v>
+      </c>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="D31" s="1">
+        <v>10</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="1">
+        <v>31</v>
+      </c>
+      <c r="I31" t="s">
+        <v>2</v>
+      </c>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>14</v>
+      </c>
+      <c r="D32" s="5">
+        <v>11</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="5">
+        <v>30</v>
+      </c>
+      <c r="I32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1">
+        <v>12</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="1">
+        <v>29</v>
+      </c>
+      <c r="I33" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="O33" s="13"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="X33" s="13"/>
+      <c r="Z33" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="D34" s="5">
+        <v>13</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="5">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>6</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O34" s="13">
+        <v>86</v>
+      </c>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="R34" s="13">
+        <v>66</v>
+      </c>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="U34" s="13">
+        <v>46</v>
+      </c>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13">
+        <v>3</v>
+      </c>
+      <c r="X34">
+        <v>24</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>11</v>
+      </c>
+      <c r="D35" s="1">
+        <v>14</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="1">
+        <v>27</v>
+      </c>
+      <c r="I35" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="O35" s="13">
+        <v>87</v>
+      </c>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="R35" s="13">
+        <v>67</v>
+      </c>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="U35" s="13">
+        <v>47</v>
+      </c>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13">
+        <v>4</v>
+      </c>
+      <c r="X35">
+        <v>25</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="D36" s="5">
+        <v>15</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="5">
+        <v>26</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>32</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O36" s="13">
+        <v>88</v>
+      </c>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R36" s="13">
+        <v>68</v>
+      </c>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="U36" s="13">
+        <v>48</v>
+      </c>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13">
+        <v>5</v>
+      </c>
+      <c r="X36">
+        <v>26</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="D37" s="1">
+        <v>16</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="1">
+        <v>25</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>32</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="O37" s="13">
+        <v>89</v>
+      </c>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="R37" s="13">
+        <v>69</v>
+      </c>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="U37" s="13">
+        <v>49</v>
+      </c>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13">
+        <v>6</v>
+      </c>
+      <c r="X37">
+        <v>27</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="D38" s="5">
+        <v>17</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="5">
+        <v>24</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>32</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O38" s="13">
+        <v>90</v>
+      </c>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="R38" s="13">
+        <v>70</v>
+      </c>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="U38" s="13">
+        <v>50</v>
+      </c>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13">
+        <v>7</v>
+      </c>
+      <c r="X38">
+        <v>28</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1">
+        <v>18</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="1">
+        <v>23</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39" t="s">
+        <v>32</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O39" s="13">
+        <v>91</v>
+      </c>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="R39" s="13">
+        <v>71</v>
+      </c>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="U39" s="13">
+        <v>51</v>
+      </c>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13">
+        <v>8</v>
+      </c>
+      <c r="X39">
+        <v>29</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="D40" s="5">
+        <v>19</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="5">
+        <v>22</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O40" s="13">
+        <v>92</v>
+      </c>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="R40" s="13">
+        <v>72</v>
+      </c>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="U40" s="13">
+        <v>52</v>
+      </c>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13">
+        <v>9</v>
+      </c>
+      <c r="X40">
+        <v>30</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1">
+        <v>20</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="1">
+        <v>21</v>
+      </c>
+      <c r="I41" t="s">
+        <v>117</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="O41" s="13">
+        <v>93</v>
+      </c>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="R41" s="13">
+        <v>73</v>
+      </c>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="U41" s="13">
+        <v>53</v>
+      </c>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>31</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="N42" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O42" s="13">
+        <v>95</v>
+      </c>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="R42" s="13">
+        <v>74</v>
+      </c>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U42" s="13">
+        <v>54</v>
+      </c>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="X42">
+        <v>32</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O43" s="13">
+        <v>96</v>
+      </c>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="R43" s="13">
+        <v>75</v>
+      </c>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U43" s="13">
+        <v>55</v>
+      </c>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="X43">
+        <v>33</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>114</v>
+      </c>
+      <c r="N44" s="13">
+        <v>1</v>
+      </c>
+      <c r="O44" s="13">
+        <v>97</v>
+      </c>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13">
+        <v>4</v>
+      </c>
+      <c r="R44" s="13">
+        <v>76</v>
+      </c>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13">
+        <v>7</v>
+      </c>
+      <c r="U44" s="13">
+        <v>56</v>
+      </c>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="X44">
+        <v>34</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>115</v>
+      </c>
+      <c r="N45" s="13">
+        <v>2</v>
+      </c>
+      <c r="O45" s="13">
+        <v>98</v>
+      </c>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13">
+        <v>5</v>
+      </c>
+      <c r="R45" s="13">
+        <v>77</v>
+      </c>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13">
+        <v>8</v>
+      </c>
+      <c r="U45" s="13">
+        <v>57</v>
+      </c>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="X45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="N46" s="13">
+        <v>3</v>
+      </c>
+      <c r="O46" s="13">
+        <v>99</v>
+      </c>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13">
+        <v>6</v>
+      </c>
+      <c r="R46" s="13">
+        <v>78</v>
+      </c>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13">
+        <v>9</v>
+      </c>
+      <c r="U46" s="13">
+        <v>58</v>
+      </c>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="X46">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="N47" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O47" s="13">
+        <v>100</v>
+      </c>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="R47" s="13">
+        <v>79</v>
+      </c>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="U47" s="13">
+        <v>59</v>
+      </c>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="X47">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="N48" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="O48" s="13">
+        <v>101</v>
+      </c>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="R48" s="13">
+        <v>80</v>
+      </c>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="U48" s="13">
+        <v>60</v>
+      </c>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="X48">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="14:24" x14ac:dyDescent="0.25">
+      <c r="N49" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O49" s="13">
+        <v>102</v>
+      </c>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="R49" s="13">
+        <v>81</v>
+      </c>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="U49" s="13">
+        <v>61</v>
+      </c>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X49">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="14:24" x14ac:dyDescent="0.25">
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="X50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="14:24" x14ac:dyDescent="0.25">
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+    </row>
+    <row r="52" spans="14:24" x14ac:dyDescent="0.25">
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
+    </row>
+    <row r="53" spans="14:24" x14ac:dyDescent="0.25">
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="13"/>
+    </row>
+    <row r="54" spans="14:24" x14ac:dyDescent="0.25">
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
+    </row>
+    <row r="55" spans="14:24" x14ac:dyDescent="0.25">
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Micro Switch SD-16238 Pinouts.xlsx
+++ b/Micro Switch SD-16238 Pinouts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/706bb807e9c48073/Westveld LLC/Item Research/Honeywell/Terminals/Micro Switch SD-16238/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="550" documentId="11_F25DC773A252ABDACC104848215C7D3E5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87961A2E-16F5-4CFE-BF6D-90D6073EB0CE}"/>
+  <xr:revisionPtr revIDLastSave="563" documentId="11_F25DC773A252ABDACC104848215C7D3E5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3546EAD9-3A7C-483E-AF95-C57E62D95372}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="124">
   <si>
     <t>Data 6</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Strobe</t>
   </si>
   <si>
-    <t>Key under local</t>
-  </si>
-  <si>
     <t>25F</t>
   </si>
   <si>
@@ -385,6 +382,21 @@
   </si>
   <si>
     <t>IC Pinout</t>
+  </si>
+  <si>
+    <t>Switch pinout</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>input to switch, special keys tie this to GND</t>
+  </si>
+  <si>
+    <t>BRK/Key under local</t>
   </si>
 </sst>
 </file>
@@ -814,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,9 +839,9 @@
     <col min="18" max="18" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>19</v>
@@ -844,10 +856,10 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -871,8 +883,11 @@
       <c r="L2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="Q2" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -899,7 +914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -925,8 +940,11 @@
       <c r="L4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="Q4" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -952,8 +970,14 @@
       <c r="L5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="Q5" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="R5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -979,8 +1003,14 @@
       <c r="L6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="Q6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -1006,8 +1036,11 @@
       <c r="L7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="Q7" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -1034,7 +1067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -1061,7 +1094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -1088,7 +1121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -1115,9 +1148,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="D12" s="5">
         <v>23</v>
@@ -1142,7 +1175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -1169,7 +1202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -1196,39 +1229,39 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="N21" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
       <c r="T21" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U21" s="15"/>
       <c r="V21" s="13"/>
@@ -1236,7 +1269,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
@@ -1247,24 +1280,24 @@
         <v>40</v>
       </c>
       <c r="I22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N22" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O22" s="13">
         <v>16</v>
       </c>
       <c r="P22" s="13"/>
       <c r="Q22" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R22" s="13">
         <v>1</v>
       </c>
       <c r="S22" s="13"/>
       <c r="T22" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U22" s="13">
         <v>106</v>
@@ -1274,7 +1307,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -1285,24 +1318,24 @@
         <v>39</v>
       </c>
       <c r="I23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O23" s="13">
         <v>17</v>
       </c>
       <c r="P23" s="13"/>
       <c r="Q23" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R23" s="13">
         <v>2</v>
       </c>
       <c r="S23" s="13"/>
       <c r="T23" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U23" s="13">
         <v>107</v>
@@ -1312,7 +1345,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" s="5">
         <v>3</v>
@@ -1326,21 +1359,21 @@
         <v>10</v>
       </c>
       <c r="N24" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O24" s="13">
         <v>41</v>
       </c>
       <c r="P24" s="13"/>
       <c r="Q24" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R24" s="13">
         <v>3</v>
       </c>
       <c r="S24" s="13"/>
       <c r="T24" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U24" s="13">
         <v>108</v>
@@ -1350,7 +1383,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D25" s="1">
         <v>4</v>
@@ -1361,17 +1394,17 @@
         <v>37</v>
       </c>
       <c r="I25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O25" s="13">
         <v>42</v>
       </c>
       <c r="P25" s="13"/>
       <c r="Q25" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R25" s="13">
         <v>4</v>
@@ -1388,7 +1421,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26" s="5">
         <v>5</v>
@@ -1402,21 +1435,21 @@
         <v>10</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O26" s="13">
         <v>43</v>
       </c>
       <c r="P26" s="13"/>
       <c r="Q26" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R26" s="13">
         <v>21</v>
       </c>
       <c r="S26" s="13"/>
       <c r="T26" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U26" s="13">
         <v>105</v>
@@ -1426,7 +1459,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27" s="1">
         <v>6</v>
@@ -1440,7 +1473,7 @@
         <v>10</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O27" s="13">
         <v>63</v>
@@ -1454,7 +1487,7 @@
       </c>
       <c r="S27" s="13"/>
       <c r="T27" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U27" s="13">
         <v>84</v>
@@ -1464,7 +1497,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D28" s="5">
         <v>7</v>
@@ -1478,21 +1511,21 @@
         <v>10</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O28" s="13">
         <v>64</v>
       </c>
       <c r="P28" s="13"/>
       <c r="Q28" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R28" s="13">
         <v>23</v>
       </c>
       <c r="S28" s="13"/>
       <c r="T28" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U28" s="13">
         <v>85</v>
@@ -1502,7 +1535,7 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D29" s="1">
         <v>8</v>
@@ -1516,14 +1549,14 @@
         <v>0</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O29" s="13">
         <v>65</v>
       </c>
       <c r="P29" s="13"/>
       <c r="Q29" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R29" s="13">
         <v>44</v>
@@ -1536,7 +1569,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D30" s="5">
         <v>9</v>
@@ -1553,7 +1586,7 @@
       <c r="O30" s="13"/>
       <c r="P30" s="13"/>
       <c r="Q30" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R30" s="13">
         <v>45</v>
@@ -1566,7 +1599,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>15</v>
@@ -1594,7 +1627,7 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>14</v>
@@ -1622,7 +1655,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>13</v>
@@ -1639,31 +1672,31 @@
         <v>4</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O33" s="13"/>
       <c r="P33" s="15"/>
       <c r="Q33" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
       <c r="T33" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
       <c r="W33" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X33" s="13"/>
       <c r="Z33" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34">
         <v>12</v>
@@ -1680,21 +1713,21 @@
         <v>6</v>
       </c>
       <c r="N34" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O34" s="13">
         <v>86</v>
       </c>
       <c r="P34" s="13"/>
       <c r="Q34" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R34" s="13">
         <v>66</v>
       </c>
       <c r="S34" s="13"/>
       <c r="T34" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U34" s="13">
         <v>46</v>
@@ -1707,7 +1740,7 @@
         <v>24</v>
       </c>
       <c r="Z34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AA34">
         <v>5</v>
@@ -1715,7 +1748,7 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35">
         <v>11</v>
@@ -1732,21 +1765,21 @@
         <v>5</v>
       </c>
       <c r="N35" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O35" s="13">
         <v>87</v>
       </c>
       <c r="P35" s="13"/>
       <c r="Q35" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R35" s="13">
         <v>67</v>
       </c>
       <c r="S35" s="13"/>
       <c r="T35" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U35" s="13">
         <v>47</v>
@@ -1759,7 +1792,7 @@
         <v>25</v>
       </c>
       <c r="Z35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA35">
         <v>6</v>
@@ -1767,7 +1800,7 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36">
         <v>10</v>
@@ -1784,24 +1817,24 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O36" s="13">
         <v>88</v>
       </c>
       <c r="P36" s="13"/>
       <c r="Q36" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R36" s="13">
         <v>68</v>
       </c>
       <c r="S36" s="13"/>
       <c r="T36" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U36" s="13">
         <v>48</v>
@@ -1814,7 +1847,7 @@
         <v>26</v>
       </c>
       <c r="Z36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA36">
         <v>7</v>
@@ -1822,7 +1855,7 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37">
         <v>9</v>
@@ -1839,24 +1872,24 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O37" s="13">
         <v>89</v>
       </c>
       <c r="P37" s="13"/>
       <c r="Q37" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R37" s="13">
         <v>69</v>
       </c>
       <c r="S37" s="13"/>
       <c r="T37" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U37" s="13">
         <v>49</v>
@@ -1869,7 +1902,7 @@
         <v>27</v>
       </c>
       <c r="Z37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AA37">
         <v>8</v>
@@ -1877,7 +1910,7 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38">
         <v>8</v>
@@ -1894,24 +1927,24 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O38" s="13">
         <v>90</v>
       </c>
       <c r="P38" s="13"/>
       <c r="Q38" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R38" s="13">
         <v>70</v>
       </c>
       <c r="S38" s="13"/>
       <c r="T38" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U38" s="13">
         <v>50</v>
@@ -1924,7 +1957,7 @@
         <v>28</v>
       </c>
       <c r="Z38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA38">
         <v>9</v>
@@ -1932,7 +1965,7 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39">
         <v>7</v>
@@ -1949,24 +1982,24 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N39" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O39" s="13">
         <v>91</v>
       </c>
       <c r="P39" s="13"/>
       <c r="Q39" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R39" s="13">
         <v>71</v>
       </c>
       <c r="S39" s="13"/>
       <c r="T39" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U39" s="13">
         <v>51</v>
@@ -1979,7 +2012,7 @@
         <v>29</v>
       </c>
       <c r="Z39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA39">
         <v>10</v>
@@ -1987,7 +2020,7 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -2004,24 +2037,24 @@
         <v>4</v>
       </c>
       <c r="I40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N40" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O40" s="13">
         <v>92</v>
       </c>
       <c r="P40" s="13"/>
       <c r="Q40" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R40" s="13">
         <v>72</v>
       </c>
       <c r="S40" s="13"/>
       <c r="T40" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U40" s="13">
         <v>52</v>
@@ -2034,7 +2067,7 @@
         <v>30</v>
       </c>
       <c r="Z40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AA40">
         <v>11</v>
@@ -2042,7 +2075,7 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -2056,24 +2089,24 @@
         <v>21</v>
       </c>
       <c r="I41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N41" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O41" s="13">
         <v>93</v>
       </c>
       <c r="P41" s="13"/>
       <c r="Q41" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R41" s="13">
         <v>73</v>
       </c>
       <c r="S41" s="13"/>
       <c r="T41" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U41" s="13">
         <v>53</v>
@@ -2086,7 +2119,7 @@
         <v>31</v>
       </c>
       <c r="Z41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA41">
         <v>12</v>
@@ -2094,34 +2127,34 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="N42" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O42" s="13">
         <v>95</v>
       </c>
       <c r="P42" s="13"/>
       <c r="Q42" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R42" s="13">
         <v>74</v>
       </c>
       <c r="S42" s="13"/>
       <c r="T42" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U42" s="13">
         <v>54</v>
       </c>
       <c r="V42" s="13"/>
       <c r="W42" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X42">
         <v>32</v>
       </c>
       <c r="Z42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA42">
         <v>13</v>
@@ -2129,37 +2162,37 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N43" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O43" s="13">
         <v>96</v>
       </c>
       <c r="P43" s="13"/>
       <c r="Q43" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R43" s="13">
         <v>75</v>
       </c>
       <c r="S43" s="13"/>
       <c r="T43" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U43" s="13">
         <v>55</v>
       </c>
       <c r="V43" s="13"/>
       <c r="W43" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X43">
         <v>33</v>
       </c>
       <c r="Z43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA43">
         <v>14</v>
@@ -2167,7 +2200,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N44" s="13">
         <v>1</v>
@@ -2191,13 +2224,13 @@
       </c>
       <c r="V44" s="13"/>
       <c r="W44" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X44">
         <v>34</v>
       </c>
       <c r="Z44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AA44">
         <v>15</v>
@@ -2205,7 +2238,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N45" s="13">
         <v>2</v>
@@ -2229,7 +2262,7 @@
       </c>
       <c r="V45" s="13"/>
       <c r="W45" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X45">
         <v>35</v>
@@ -2258,7 +2291,7 @@
       </c>
       <c r="V46" s="13"/>
       <c r="W46" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X46">
         <v>36</v>
@@ -2266,28 +2299,28 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="N47" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O47" s="13">
         <v>100</v>
       </c>
       <c r="P47" s="13"/>
       <c r="Q47" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R47" s="13">
         <v>79</v>
       </c>
       <c r="S47" s="13"/>
       <c r="T47" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U47" s="13">
         <v>59</v>
       </c>
       <c r="V47" s="13"/>
       <c r="W47" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X47">
         <v>37</v>
@@ -2295,28 +2328,28 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="N48" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O48" s="13">
         <v>101</v>
       </c>
       <c r="P48" s="13"/>
       <c r="Q48" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R48" s="13">
         <v>80</v>
       </c>
       <c r="S48" s="13"/>
       <c r="T48" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U48" s="13">
         <v>60</v>
       </c>
       <c r="V48" s="13"/>
       <c r="W48" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X48">
         <v>38</v>
@@ -2324,28 +2357,28 @@
     </row>
     <row r="49" spans="14:24" x14ac:dyDescent="0.25">
       <c r="N49" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O49" s="13">
         <v>102</v>
       </c>
       <c r="P49" s="13"/>
       <c r="Q49" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R49" s="13">
         <v>81</v>
       </c>
       <c r="S49" s="13"/>
       <c r="T49" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U49" s="13">
         <v>61</v>
       </c>
       <c r="V49" s="13"/>
       <c r="W49" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X49">
         <v>39</v>
@@ -2361,7 +2394,7 @@
       <c r="U50" s="13"/>
       <c r="V50" s="13"/>
       <c r="W50" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X50">
         <v>40</v>
@@ -2424,6 +2457,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>